--- a/RTG/To Do/To Do List and Questions.xlsx
+++ b/RTG/To Do/To Do List and Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KristenChristopher\Documents\GitHub\Clients\Clients\RTG\To Do\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAB3C3C-C8F6-4C05-8A1A-3680C69805EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11551401-0306-48B7-85B9-FD001B96109A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="195" windowWidth="25440" windowHeight="15390" xr2:uid="{7808F53D-8DBA-41BB-A146-DDEF0F4A5EC5}"/>
+    <workbookView xWindow="1560" yWindow="1440" windowWidth="23490" windowHeight="14760" xr2:uid="{7808F53D-8DBA-41BB-A146-DDEF0F4A5EC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>AM_FL_SVC_EN</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>2. SET ALL EVENT FLOWS TO CATCH ALL QUEUE</t>
+  </si>
+  <si>
+    <t>3. SET VOICEMAIL TIMEOUTS</t>
+  </si>
+  <si>
+    <t>4. SET SUDDEN DISCONNECT TO 10 AND SHORT CALL 0</t>
   </si>
 </sst>
 </file>
@@ -528,7 +534,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,6 +743,16 @@
         <v>44</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>26</v>
